--- a/order-items.xlsx
+++ b/order-items.xlsx
@@ -26,13 +26,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>prod_id</t>
   </si>
   <si>
     <t>unit</t>
+  </si>
+  <si>
+    <t>order_id</t>
   </si>
 </sst>
 </file>
@@ -375,13 +375,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
